--- a/Examples/ANP_Water_Reservoir/WaterReservior_results_unWeighted.xlsx
+++ b/Examples/ANP_Water_Reservoir/WaterReservior_results_unWeighted.xlsx
@@ -429,13 +429,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.63699999032322</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F2">
-        <v>0.1999999066667279</v>
+        <v>0.7219999951205558</v>
       </c>
       <c r="G2">
-        <v>0.05999988438146938</v>
+        <v>0.07200008696040984</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,13 +452,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2580000136364074</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F3">
-        <v>0.6000001199999307</v>
+        <v>0.2050000025153011</v>
       </c>
       <c r="G3">
-        <v>0.2309999275684518</v>
+        <v>0.649000011226216</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1049999960403727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F4">
-        <v>0.1999999733333413</v>
+        <v>0.07300000236414299</v>
       </c>
       <c r="G4">
-        <v>0.7090001880500788</v>
+        <v>0.2789999018133741</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,10 +492,10 @@
         <v>0.7219999951205558</v>
       </c>
       <c r="C5">
-        <v>0.07200008696040984</v>
+        <v>0.4302324239064163</v>
       </c>
       <c r="D5">
-        <v>0.05800016977734325</v>
+        <v>0.4382825810072314</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0.2050000025153011</v>
       </c>
       <c r="C6">
-        <v>0.649000011226216</v>
+        <v>0.3247054900642369</v>
       </c>
       <c r="D6">
-        <v>0.2070004449070189</v>
+        <v>0.1234348381961154</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0.07300000236414299</v>
       </c>
       <c r="C7">
-        <v>0.2789999018133741</v>
+        <v>0.2450620860293468</v>
       </c>
       <c r="D7">
-        <v>0.7349993853156379</v>
+        <v>0.4382825807966532</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/Examples/ANP_Water_Reservoir/WaterReservior_results_unWeighted.xlsx
+++ b/Examples/ANP_Water_Reservoir/WaterReservior_results_unWeighted.xlsx
@@ -429,13 +429,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3333333333333333</v>
+        <v>0.63699999032322</v>
       </c>
       <c r="F2">
-        <v>0.7219999951205558</v>
+        <v>0.1999999066667279</v>
       </c>
       <c r="G2">
-        <v>0.07200008696040984</v>
+        <v>0.05999988438146938</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,13 +452,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3333333333333333</v>
+        <v>0.2580000136364074</v>
       </c>
       <c r="F3">
-        <v>0.2050000025153011</v>
+        <v>0.6000001199999307</v>
       </c>
       <c r="G3">
-        <v>0.649000011226216</v>
+        <v>0.2309999275684518</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3333333333333333</v>
+        <v>0.1049999960403727</v>
       </c>
       <c r="F4">
-        <v>0.07300000236414299</v>
+        <v>0.1999999733333413</v>
       </c>
       <c r="G4">
-        <v>0.2789999018133741</v>
+        <v>0.7090001880500788</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,10 +492,10 @@
         <v>0.7219999951205558</v>
       </c>
       <c r="C5">
-        <v>0.4302324239064163</v>
+        <v>0.07200008696040984</v>
       </c>
       <c r="D5">
-        <v>0.4382825810072314</v>
+        <v>0.05800016977734325</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0.2050000025153011</v>
       </c>
       <c r="C6">
-        <v>0.3247054900642369</v>
+        <v>0.649000011226216</v>
       </c>
       <c r="D6">
-        <v>0.1234348381961154</v>
+        <v>0.2070004449070189</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0.07300000236414299</v>
       </c>
       <c r="C7">
-        <v>0.2450620860293468</v>
+        <v>0.2789999018133741</v>
       </c>
       <c r="D7">
-        <v>0.4382825807966532</v>
+        <v>0.7349993853156379</v>
       </c>
       <c r="E7">
         <v>0</v>
